--- a/10/1/Tipo de Cambio 2001 a 2021 - Trimestral.xlsx
+++ b/10/1/Tipo de Cambio 2001 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,6 +1780,20 @@
         <v>714</v>
       </c>
     </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>765</v>
+      </c>
+      <c r="C83">
+        <v>754</v>
+      </c>
+      <c r="D83">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
